--- a/output/fit_clients/fit_round_440.xlsx
+++ b/output/fit_clients/fit_round_440.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1604474258.799313</v>
+        <v>1623312637.517437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08369648921327594</v>
+        <v>0.1039385777058084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03411088092864675</v>
+        <v>0.02873918855498562</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>802237071.8452294</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1730196766.005693</v>
+        <v>1913993256.183666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1608318545117491</v>
+        <v>0.1613675630930061</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0456885979327033</v>
+        <v>0.03412191732011687</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>865098381.3039488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3558537718.584099</v>
+        <v>4011711522.829948</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1528110104986899</v>
+        <v>0.108921462283939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02686566699683252</v>
+        <v>0.03021968274596916</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>159</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1779268842.207641</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2782665428.724861</v>
+        <v>3734552090.876542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07685302969473917</v>
+        <v>0.07054959501603997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03658865076441931</v>
+        <v>0.04614759598474753</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>163</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1391332798.641536</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2233680816.014</v>
+        <v>2584870078.12814</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09685140828734103</v>
+        <v>0.09081933230030705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04628228114985696</v>
+        <v>0.03546516741404794</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1116840412.3287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2237927120.609764</v>
+        <v>2662991611.374657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06605125427645676</v>
+        <v>0.06237795937129761</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03052488449027152</v>
+        <v>0.04130830728585405</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>138</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1118963598.630976</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2863524994.614479</v>
+        <v>2967930223.220368</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1999556513300498</v>
+        <v>0.17850443729341</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02283331363422694</v>
+        <v>0.02803043236429533</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>140</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1431762540.889375</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1827072724.090597</v>
+        <v>1726684697.026725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.175278484506076</v>
+        <v>0.1792707234656865</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03312330438887559</v>
+        <v>0.03006994424702921</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>913536412.6605294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4943743531.272556</v>
+        <v>5190717827.338615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1666630732997937</v>
+        <v>0.168346942746136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05031250325199219</v>
+        <v>0.05404731666549641</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>185</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2471871860.614295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2702318925.620344</v>
+        <v>3472836254.00768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1681019939432218</v>
+        <v>0.1316562124614946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04843599183193516</v>
+        <v>0.04259769296437696</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>182</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1351159385.06078</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2336299329.918812</v>
+        <v>2699262839.273916</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1595516029231672</v>
+        <v>0.1555572491554331</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03923189168239956</v>
+        <v>0.04901571499361499</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>151</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1168149622.213187</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3704762162.843027</v>
+        <v>3926770119.47301</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09355998747832334</v>
+        <v>0.08638779410295751</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03141901009031835</v>
+        <v>0.0290410653730429</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>148</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1852381151.364909</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2495809582.154109</v>
+        <v>3631977137.551157</v>
       </c>
       <c r="F14" t="n">
-        <v>0.181353142953857</v>
+        <v>0.1442661240926041</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03087576325411767</v>
+        <v>0.02963455180359116</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>141</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1247904862.04642</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1317186168.336348</v>
+        <v>1468748579.871943</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07740208095090584</v>
+        <v>0.08547948496721473</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03294893573762817</v>
+        <v>0.02987497045192796</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>658593128.2322165</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2254039127.038778</v>
+        <v>2095883055.871422</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1140101028656494</v>
+        <v>0.0916267197714653</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05051003308911473</v>
+        <v>0.03543998790497976</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>91</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1127019616.34095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4979702940.915606</v>
+        <v>3258777685.631687</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1115041488202797</v>
+        <v>0.1398574415691195</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04521873782063462</v>
+        <v>0.04582716566448763</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>129</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2489851456.659493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3306948193.361484</v>
+        <v>2581012576.3119</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1643206238052155</v>
+        <v>0.17995471007065</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03270248038794202</v>
+        <v>0.02963306182803611</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>144</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1653474104.693759</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>900487469.0147978</v>
+        <v>943909048.3062692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1172467067057788</v>
+        <v>0.1869100747715214</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0216354879372077</v>
+        <v>0.02343901933630985</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>450243739.5288718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2676149055.499231</v>
+        <v>2010056009.784807</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1287384416631824</v>
+        <v>0.0978241252543012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02923558363121379</v>
+        <v>0.02647139267102574</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1338074482.077692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2264464054.179129</v>
+        <v>1934374398.97965</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09784749707674657</v>
+        <v>0.07019090153410142</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02899109320864934</v>
+        <v>0.0391932291252633</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1132232037.77357</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2853096199.642497</v>
+        <v>2790788852.29033</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1365641960116789</v>
+        <v>0.1221908529179565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04173133474383595</v>
+        <v>0.05514282006776441</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1426548170.164286</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>944960532.0466396</v>
+        <v>1142656711.433193</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1503202946642765</v>
+        <v>0.1373906829723202</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04559927904081061</v>
+        <v>0.03351644841114333</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>472480345.4914548</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2548075425.617113</v>
+        <v>3526442135.84582</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1216314498446804</v>
+        <v>0.09707605185139555</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02821849511357909</v>
+        <v>0.03211363453691258</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>129</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1274037778.453277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1124037738.069218</v>
+        <v>1100526666.143547</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1172752603660417</v>
+        <v>0.08950193253773522</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02483098740293297</v>
+        <v>0.0278942290132418</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>562018904.4900255</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1182206128.368563</v>
+        <v>1068429318.968733</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1097045372947844</v>
+        <v>0.08778900397428906</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02582490913584057</v>
+        <v>0.03547585041910577</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>591103080.8537936</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4703908624.218765</v>
+        <v>4043237543.687066</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1354260448429346</v>
+        <v>0.1508708516305113</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02392036530354342</v>
+        <v>0.01911225497671919</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2351954287.315478</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2989940005.876272</v>
+        <v>3547108952.812557</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1224920352153151</v>
+        <v>0.1410663563487559</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04836603093262766</v>
+        <v>0.0303371234602107</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1494970013.310006</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5928968987.928846</v>
+        <v>5626000537.161381</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1119925201176325</v>
+        <v>0.125986596018011</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03100889069295546</v>
+        <v>0.03045209417766002</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>194</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2964484377.182891</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1512702549.164852</v>
+        <v>1957361043.578407</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09777284031863369</v>
+        <v>0.1202039066896531</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03221854692238782</v>
+        <v>0.03104574714504116</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>756351256.5910319</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>956200815.9787258</v>
+        <v>955041573.4474443</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08759329620439935</v>
+        <v>0.06906758332715451</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04068881189336469</v>
+        <v>0.04404518493274411</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>478100416.8478693</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1151771234.19019</v>
+        <v>1544575818.609916</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1015768446243027</v>
+        <v>0.1179696294468345</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03046630078409156</v>
+        <v>0.02701160946788728</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>575885613.3400247</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2460385078.751666</v>
+        <v>2716899664.931101</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1432869499678107</v>
+        <v>0.1677793579405032</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03895032862184148</v>
+        <v>0.05209815710192087</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>135</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1230192580.960591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1501804148.550173</v>
+        <v>1386998021.241197</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09119392886076105</v>
+        <v>0.08821678913037051</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02291732940153585</v>
+        <v>0.02001610147675868</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>750902029.8979378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1058493346.414153</v>
+        <v>1362790302.061683</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09729118213097818</v>
+        <v>0.09335069923735174</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04008562231650516</v>
+        <v>0.03624014686041763</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>529246678.9720989</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3239982279.913064</v>
+        <v>2870392784.843831</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1637560968217759</v>
+        <v>0.1103938020931881</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02585694699555725</v>
+        <v>0.02669028784020546</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>111</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1619991102.671353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2046893809.636212</v>
+        <v>1851972724.050857</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08872412348243439</v>
+        <v>0.08335055297969929</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0385348567078885</v>
+        <v>0.02773884281518273</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>119</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1023446938.602769</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1606944469.962604</v>
+        <v>2002748851.63223</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1208644343383181</v>
+        <v>0.1036836183291249</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03216298395096478</v>
+        <v>0.03904713131883251</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>803472269.1468567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1516413777.647168</v>
+        <v>2217726921.399893</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1759177068087937</v>
+        <v>0.1694874313421481</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02307245150000672</v>
+        <v>0.02372982760534515</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>758206956.7693571</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1296986473.922857</v>
+        <v>1600177742.610904</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1174361505198276</v>
+        <v>0.108233674919839</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04396284000604325</v>
+        <v>0.04233396693488573</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>648493253.9936219</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1920236171.334334</v>
+        <v>2022757619.656991</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1151701988846908</v>
+        <v>0.1664679945072527</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0363199241600184</v>
+        <v>0.04229589945281386</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>960118167.6988517</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3245460660.736604</v>
+        <v>2730716953.869346</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08448305651511159</v>
+        <v>0.1072116230245666</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02817511845978864</v>
+        <v>0.03896515187048496</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>146</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1622730307.710431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2290001467.317858</v>
+        <v>2837076298.060174</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1464277945511827</v>
+        <v>0.1783332905360297</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02367491698203108</v>
+        <v>0.0172241825237549</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>152</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1145000803.464628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1560750843.096313</v>
+        <v>2081765320.489743</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07198756603162915</v>
+        <v>0.08260309235448993</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0351617999953014</v>
+        <v>0.02657301927518267</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>780375440.256209</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2231159051.977205</v>
+        <v>2421195740.231997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1932885876745893</v>
+        <v>0.168481595911399</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04913086031483394</v>
+        <v>0.04152760495888</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1115579540.145154</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3903002548.361463</v>
+        <v>5041521751.77225</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1680848733639137</v>
+        <v>0.1407366525549719</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05999190471273098</v>
+        <v>0.03752229348036609</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>156</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1951501238.188378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4522019303.415337</v>
+        <v>4187856283.407857</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1447468928944506</v>
+        <v>0.142135058506762</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0427850683839783</v>
+        <v>0.03757372761162095</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>121</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2261009680.429444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3574706784.216227</v>
+        <v>3074061944.140598</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08944351972166391</v>
+        <v>0.1078411011476943</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0316436851205823</v>
+        <v>0.03246358399748715</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>144</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1787353451.216095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1512128317.458415</v>
+        <v>1857805127.119606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1555940274307799</v>
+        <v>0.1815043781107614</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03726188470533992</v>
+        <v>0.04277508312880406</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>756064188.8870189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3602222869.111991</v>
+        <v>3048311650.233921</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1564484875433865</v>
+        <v>0.1485779535894545</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03383858711301255</v>
+        <v>0.0504532097157213</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>151</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1801111451.582597</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1353026589.099759</v>
+        <v>986241593.7376548</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1711211633071353</v>
+        <v>0.1707331928156837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04218317170907494</v>
+        <v>0.05226934617363101</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>676513321.3231568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4132328286.120153</v>
+        <v>4602931905.839261</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1182655028897885</v>
+        <v>0.1262803638437163</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04531756080284596</v>
+        <v>0.05427329133793692</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>181</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2066164191.767333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2530690957.830895</v>
+        <v>3626691766.827384</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1273973644564779</v>
+        <v>0.1993601014638913</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02288186243925593</v>
+        <v>0.02366355026313227</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1265345543.771431</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3461681973.921369</v>
+        <v>4428345759.309097</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1408012959648725</v>
+        <v>0.1165877322563131</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03318279647821427</v>
+        <v>0.03304510167406522</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1730841008.759174</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4468248644.373786</v>
+        <v>3107837438.002278</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1797114759986429</v>
+        <v>0.1462149765437273</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02483165691629689</v>
+        <v>0.0236634947171608</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2234124317.75829</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1314849338.698782</v>
+        <v>1270886208.383007</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1213492579312556</v>
+        <v>0.114632876067067</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04419116363913946</v>
+        <v>0.03781525553161731</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>657424739.068127</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3688598780.093752</v>
+        <v>3050658775.317992</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1558034078360073</v>
+        <v>0.1569811524854426</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02245754361982557</v>
+        <v>0.02121081322260626</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>140</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1844299452.286285</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1735429683.214622</v>
+        <v>1776014156.950632</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1512332896703417</v>
+        <v>0.1347984982611464</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03943075001955828</v>
+        <v>0.03538596739456359</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>867714851.2741189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3355825527.723737</v>
+        <v>3471398084.510481</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09498096822631502</v>
+        <v>0.09097656846322076</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03185938400695262</v>
+        <v>0.0429951251969934</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1677912770.905294</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2939222614.604545</v>
+        <v>2741542289.947604</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1532932265805566</v>
+        <v>0.1820889825092523</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02441965315891901</v>
+        <v>0.02330814161763389</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>136</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1469611371.297775</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2564243706.60421</v>
+        <v>2647487051.945996</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1579777684069761</v>
+        <v>0.1424961432564417</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02705803656563522</v>
+        <v>0.02829247861604526</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>151</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1282121874.878402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1492305786.92821</v>
+        <v>2025330710.454269</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1519898372095991</v>
+        <v>0.1570858885962231</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04323480761264135</v>
+        <v>0.0337097108232725</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>746152875.4061018</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4968958013.672264</v>
+        <v>3615889288.633799</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08308195858499183</v>
+        <v>0.08650730199807072</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04280032995791753</v>
+        <v>0.03809123536037357</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2484479025.991691</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3546238965.135529</v>
+        <v>4952657771.933962</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1532918549553273</v>
+        <v>0.1289096503773988</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03385619316027163</v>
+        <v>0.02468331170463988</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>137</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1773119486.527946</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5742069423.264692</v>
+        <v>3633058078.344134</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1182598498998114</v>
+        <v>0.1179413125797482</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02157505298641343</v>
+        <v>0.03184486754078808</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>158</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2871034626.282679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5434478972.800777</v>
+        <v>4123759555.624346</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1175967413297003</v>
+        <v>0.1419771558821326</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04992757147425934</v>
+        <v>0.03882461472992606</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>131</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2717239536.856051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2477776929.362824</v>
+        <v>2793714840.007854</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09643107149041143</v>
+        <v>0.09091132940317534</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04021940505970989</v>
+        <v>0.05037139952546196</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1238888527.200677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3886301270.619349</v>
+        <v>5580531564.06589</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1605103571025804</v>
+        <v>0.1220438604284091</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03151478855247984</v>
+        <v>0.04507289469719045</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1943150624.220528</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2462410200.29521</v>
+        <v>2041997368.438769</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1710133998488837</v>
+        <v>0.1700643236068417</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04176586347029135</v>
+        <v>0.05656878510055648</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1231205164.936373</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2867240378.033014</v>
+        <v>3248402025.599305</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08189375905158079</v>
+        <v>0.08387755872705463</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03555851130871846</v>
+        <v>0.03030245179344871</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>126</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1433620157.395158</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4545460184.474033</v>
+        <v>5356145074.979868</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1795471995999629</v>
+        <v>0.1749925944744602</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02499276973789573</v>
+        <v>0.02181435718254615</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>160</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2272730164.062261</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1566070045.041382</v>
+        <v>1700407907.801945</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1012353586039048</v>
+        <v>0.08341891939704853</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04651069677875934</v>
+        <v>0.04993073218771155</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>783035038.8642696</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3483751612.388903</v>
+        <v>2836496196.054282</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09596734756486096</v>
+        <v>0.09558789562011943</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04357364381326777</v>
+        <v>0.05000428422763541</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>166</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1741875757.896886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2844034549.73333</v>
+        <v>2866305330.057598</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1124483867286663</v>
+        <v>0.1557081110673772</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03196353407414653</v>
+        <v>0.03468434708544609</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>150</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1422017353.76403</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2157458422.176135</v>
+        <v>2424865828.753736</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1182022229374391</v>
+        <v>0.1479979098443484</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02459063530876643</v>
+        <v>0.0337861749384416</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1078729160.594093</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5052388384.951475</v>
+        <v>4937202421.094922</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09754708317976551</v>
+        <v>0.1243729651602926</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02719996820994955</v>
+        <v>0.03230667234345326</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2526194221.312467</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1987827683.31802</v>
+        <v>1690872347.709979</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1639816078520488</v>
+        <v>0.136099295231069</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02233710034649448</v>
+        <v>0.0308535948924221</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>993913901.368614</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4677175672.307893</v>
+        <v>3893002299.552428</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1001723211941018</v>
+        <v>0.1115783453943975</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03569220244904721</v>
+        <v>0.03549997799374312</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>153</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2338587753.443753</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1472961870.060023</v>
+        <v>1289380798.351588</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1240322254397286</v>
+        <v>0.1756032678940569</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03864073403859421</v>
+        <v>0.03972733915957254</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>736480964.4956474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4315270111.015809</v>
+        <v>5050997672.833086</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0813200611352779</v>
+        <v>0.08829392550434324</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02330788514050043</v>
+        <v>0.03058808973276641</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2157635070.666239</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4241678649.895494</v>
+        <v>5086437950.668629</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0962747691083591</v>
+        <v>0.09781956836972838</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02051420894745616</v>
+        <v>0.02237506127777053</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2120839297.159333</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5217792009.483772</v>
+        <v>5594247923.250794</v>
       </c>
       <c r="F82" t="n">
-        <v>0.193097564357874</v>
+        <v>0.1469791871530498</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02667803257731586</v>
+        <v>0.02933032712381136</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>154</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2608895976.556591</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1808208672.896709</v>
+        <v>2414278366.184027</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1092833218683681</v>
+        <v>0.1164437071639355</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03215241267393831</v>
+        <v>0.03756034801563895</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>904104297.9350238</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2034507307.80299</v>
+        <v>1779870841.837343</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1038591079291492</v>
+        <v>0.1074517580140316</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04116214866473955</v>
+        <v>0.04349928369796798</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1017253653.878942</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3463280564.022387</v>
+        <v>2871278168.398494</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1265870323487864</v>
+        <v>0.1210764300666861</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05667049970500825</v>
+        <v>0.03466958981375809</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>166</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1731640393.30778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1777036366.159017</v>
+        <v>2180538788.557143</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1381616976450993</v>
+        <v>0.1509882734305562</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02682352062674753</v>
+        <v>0.02575007982196085</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>888518179.7077575</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1031583670.380191</v>
+        <v>930766185.0069618</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1241037746006273</v>
+        <v>0.1767698609242963</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0273166530079671</v>
+        <v>0.03369114710963135</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>515791847.6330054</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3099301012.353166</v>
+        <v>3525381390.765658</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1184429459242533</v>
+        <v>0.1690402784722975</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02589329078379966</v>
+        <v>0.03545333974316424</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>174</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1549650546.445072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2473042116.273205</v>
+        <v>2222724604.570331</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1296558430859055</v>
+        <v>0.1330130653433814</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03004225045805517</v>
+        <v>0.02679768238331853</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>149</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1236521134.881857</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1931160027.227435</v>
+        <v>1467669347.524517</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09238838093508009</v>
+        <v>0.09131591771143824</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03904948440820911</v>
+        <v>0.05458450020251247</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>965580071.3101052</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1368247393.883855</v>
+        <v>1797390249.245792</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1832243484044807</v>
+        <v>0.1934343504135212</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05228891888735628</v>
+        <v>0.05942857655610515</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>684123753.4206791</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2365593867.818532</v>
+        <v>2786246387.340733</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1086815793855316</v>
+        <v>0.1073346312181096</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02944127371311915</v>
+        <v>0.02876093664588117</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>122</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1182796907.733588</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4298535832.043347</v>
+        <v>3196170439.991879</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1320115220951095</v>
+        <v>0.09049465566055157</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0524735775243844</v>
+        <v>0.03651931418576177</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2149267897.369184</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2213730206.603293</v>
+        <v>2295660315.378694</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1069390285267496</v>
+        <v>0.1232407792198439</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0287084110775533</v>
+        <v>0.03844010934929537</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1106865129.474253</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3054030493.030082</v>
+        <v>2234226398.249629</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1078057838789632</v>
+        <v>0.08798718881790819</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04443409222945523</v>
+        <v>0.04538986725245008</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>106</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1527015242.368423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2268230223.0329</v>
+        <v>1715014300.260923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.114736523972137</v>
+        <v>0.1128507549128955</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03006257888055268</v>
+        <v>0.0426693344677072</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1134115069.883288</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4775062349.118049</v>
+        <v>3725711201.61756</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1068892782262316</v>
+        <v>0.1555238453823042</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01941338215884088</v>
+        <v>0.0283125117625334</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>142</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2387531293.281039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2649936196.184247</v>
+        <v>2575007117.381485</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1056596776503422</v>
+        <v>0.1079807746526238</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02631044140830814</v>
+        <v>0.03180188134075291</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1324968059.098037</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2542732789.075508</v>
+        <v>2689069172.230683</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1142947801011225</v>
+        <v>0.1127613519883286</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03382626676927957</v>
+        <v>0.03000421350161482</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1271366347.427653</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4627747571.362395</v>
+        <v>2967143510.605072</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1779127192019094</v>
+        <v>0.1316720816336485</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01703417345287181</v>
+        <v>0.02192530944332033</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2313873906.488313</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2869736316.566308</v>
+        <v>2547715086.765292</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1986730031437146</v>
+        <v>0.1945839345505739</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0405765760070082</v>
+        <v>0.04090164395423674</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>180</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1434868230.185766</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_440.xlsx
+++ b/output/fit_clients/fit_round_440.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1623312637.517437</v>
+        <v>2005544660.935313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1039385777058084</v>
+        <v>0.09370562951187503</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02873918855498562</v>
+        <v>0.02826630096699829</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1913993256.183666</v>
+        <v>2077590304.23334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1613675630930061</v>
+        <v>0.123368522193052</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03412191732011687</v>
+        <v>0.03191739962305391</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4011711522.829948</v>
+        <v>4075480251.730772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108921462283939</v>
+        <v>0.1206418982097271</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03021968274596916</v>
+        <v>0.03813925349284107</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3734552090.876542</v>
+        <v>4120050923.135762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07054959501603997</v>
+        <v>0.1036010529914442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04614759598474753</v>
+        <v>0.04414696897196084</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2584870078.12814</v>
+        <v>2705780432.079088</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09081933230030705</v>
+        <v>0.1366994493719179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03546516741404794</v>
+        <v>0.0479470992134329</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2662991611.374657</v>
+        <v>2582686511.518433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06237795937129761</v>
+        <v>0.06804838064306575</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04130830728585405</v>
+        <v>0.03808383186564654</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2967930223.220368</v>
+        <v>3558002738.678017</v>
       </c>
       <c r="F8" t="n">
-        <v>0.17850443729341</v>
+        <v>0.1681537310093768</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02803043236429533</v>
+        <v>0.02891082123760531</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1726684697.026725</v>
+        <v>1764136383.840928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1792707234656865</v>
+        <v>0.1955054114062422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03006994424702921</v>
+        <v>0.02689944591596515</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5190717827.338615</v>
+        <v>3679773319.26993</v>
       </c>
       <c r="F10" t="n">
-        <v>0.168346942746136</v>
+        <v>0.1353497743990157</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05404731666549641</v>
+        <v>0.03414620531344398</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3472836254.00768</v>
+        <v>4147095001.43366</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1316562124614946</v>
+        <v>0.1544791571953362</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04259769296437696</v>
+        <v>0.04217638735428583</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2699262839.273916</v>
+        <v>2385086838.853385</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1555572491554331</v>
+        <v>0.1584725067502881</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04901571499361499</v>
+        <v>0.03525739714116626</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3926770119.47301</v>
+        <v>3917966169.857733</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08638779410295751</v>
+        <v>0.08964469348975733</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0290410653730429</v>
+        <v>0.02772171332207275</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3631977137.551157</v>
+        <v>3885661960.736607</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1442661240926041</v>
+        <v>0.1778959276711168</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02963455180359116</v>
+        <v>0.02777493794144675</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1468748579.871943</v>
+        <v>1378890672.803265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08547948496721473</v>
+        <v>0.09264916340803231</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02987497045192796</v>
+        <v>0.03846777307887402</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2095883055.871422</v>
+        <v>2743284939.128454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0916267197714653</v>
+        <v>0.08004839947914211</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03543998790497976</v>
+        <v>0.03468187924002301</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3258777685.631687</v>
+        <v>4171265926.74005</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1398574415691195</v>
+        <v>0.1445618886988122</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04582716566448763</v>
+        <v>0.03677902218431736</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2581012576.3119</v>
+        <v>3205087485.949823</v>
       </c>
       <c r="F18" t="n">
-        <v>0.17995471007065</v>
+        <v>0.1346233772349106</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02963306182803611</v>
+        <v>0.02647395011683325</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>943909048.3062692</v>
+        <v>1048308223.560853</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1869100747715214</v>
+        <v>0.1386822044440794</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02343901933630985</v>
+        <v>0.02555751923991263</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010056009.784807</v>
+        <v>1713778197.935584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0978241252543012</v>
+        <v>0.1460217168817074</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02647139267102574</v>
+        <v>0.02555988315156084</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1934374398.97965</v>
+        <v>1813510304.749328</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07019090153410142</v>
+        <v>0.09477806201891542</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0391932291252633</v>
+        <v>0.02871489543422669</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2790788852.29033</v>
+        <v>3958533953.728796</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221908529179565</v>
+        <v>0.09531579209965087</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05514282006776441</v>
+        <v>0.05433577886865633</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1142656711.433193</v>
+        <v>1193361366.274091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1373906829723202</v>
+        <v>0.1810761009489213</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03351644841114333</v>
+        <v>0.03806738102551479</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3526442135.84582</v>
+        <v>3204871841.296777</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09707605185139555</v>
+        <v>0.1488712237086978</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03211363453691258</v>
+        <v>0.02637481819914484</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1100526666.143547</v>
+        <v>1252602035.072891</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08950193253773522</v>
+        <v>0.09965633888873947</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0278942290132418</v>
+        <v>0.02305550281727039</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1068429318.968733</v>
+        <v>926546027.8213551</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08778900397428906</v>
+        <v>0.08304966797742443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03547585041910577</v>
+        <v>0.02354129107277348</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4043237543.687066</v>
+        <v>4041807166.133614</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1508708516305113</v>
+        <v>0.1244148547899434</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01911225497671919</v>
+        <v>0.01962891304297798</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3547108952.812557</v>
+        <v>2774303778.771669</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1410663563487559</v>
+        <v>0.1252492280139207</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0303371234602107</v>
+        <v>0.03229957029155119</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5626000537.161381</v>
+        <v>4614651295.974455</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125986596018011</v>
+        <v>0.1076693900257284</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03045209417766002</v>
+        <v>0.04483789328750685</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1957361043.578407</v>
+        <v>2147306782.21315</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1202039066896531</v>
+        <v>0.1298236055816367</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03104574714504116</v>
+        <v>0.03174310503600451</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>955041573.4474443</v>
+        <v>1200559081.622562</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06906758332715451</v>
+        <v>0.08582566352746801</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04404518493274411</v>
+        <v>0.04227856978473653</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1544575818.609916</v>
+        <v>1671160025.099136</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1179696294468345</v>
+        <v>0.1184820852189213</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02701160946788728</v>
+        <v>0.03650203082965195</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2716899664.931101</v>
+        <v>2233375133.209482</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1677793579405032</v>
+        <v>0.1663896283454385</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05209815710192087</v>
+        <v>0.05721602046764182</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1386998021.241197</v>
+        <v>1384662366.031718</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08821678913037051</v>
+        <v>0.1084752086922361</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02001610147675868</v>
+        <v>0.01762213795499982</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1362790302.061683</v>
+        <v>1002718237.048274</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09335069923735174</v>
+        <v>0.07347191951443874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03624014686041763</v>
+        <v>0.02977114539024451</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2870392784.843831</v>
+        <v>2381161242.958652</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1103938020931881</v>
+        <v>0.1716023626738229</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02669028784020546</v>
+        <v>0.02728070650504643</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1851972724.050857</v>
+        <v>2793762528.6484</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08335055297969929</v>
+        <v>0.09695815806769473</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02773884281518273</v>
+        <v>0.03560033191514232</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2002748851.63223</v>
+        <v>1866135434.348522</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1036836183291249</v>
+        <v>0.09586017664544916</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03904713131883251</v>
+        <v>0.03931704155866072</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2217726921.399893</v>
+        <v>1586598675.897383</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1694874313421481</v>
+        <v>0.1347880941263775</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02372982760534515</v>
+        <v>0.03287027054840451</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1600177742.610904</v>
+        <v>1637516077.943914</v>
       </c>
       <c r="F40" t="n">
-        <v>0.108233674919839</v>
+        <v>0.1343167809613555</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04233396693488573</v>
+        <v>0.05676434253722797</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2022757619.656991</v>
+        <v>2126477998.737563</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1664679945072527</v>
+        <v>0.1408674039036812</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04229589945281386</v>
+        <v>0.03567266822427077</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2730716953.869346</v>
+        <v>3122118364.288887</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1072116230245666</v>
+        <v>0.08597182324844965</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03896515187048496</v>
+        <v>0.02910796843330539</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2837076298.060174</v>
+        <v>1968778268.497651</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1783332905360297</v>
+        <v>0.1725982272003231</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0172241825237549</v>
+        <v>0.02477133574118253</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2081765320.489743</v>
+        <v>1736770864.722321</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08260309235448993</v>
+        <v>0.0849107878132849</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02657301927518267</v>
+        <v>0.02986996236547318</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2421195740.231997</v>
+        <v>1579366711.170404</v>
       </c>
       <c r="F45" t="n">
-        <v>0.168481595911399</v>
+        <v>0.1952490045928988</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04152760495888</v>
+        <v>0.05611579387656396</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5041521751.77225</v>
+        <v>4982190394.851691</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1407366525549719</v>
+        <v>0.1519608812925137</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03752229348036609</v>
+        <v>0.04088238122312001</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4187856283.407857</v>
+        <v>3756681397.224825</v>
       </c>
       <c r="F47" t="n">
-        <v>0.142135058506762</v>
+        <v>0.1630448986283671</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03757372761162095</v>
+        <v>0.05155212201978264</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3074061944.140598</v>
+        <v>3974413720.559804</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1078411011476943</v>
+        <v>0.07532613907451131</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03246358399748715</v>
+        <v>0.02832815301209683</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1857805127.119606</v>
+        <v>1341132720.659347</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1815043781107614</v>
+        <v>0.1341985275746121</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04277508312880406</v>
+        <v>0.03879137701121995</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3048311650.233921</v>
+        <v>3095224995.79241</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1485779535894545</v>
+        <v>0.1546100723397199</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0504532097157213</v>
+        <v>0.04100464132891765</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>986241593.7376548</v>
+        <v>988004709.7571604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1707331928156837</v>
+        <v>0.1614798234100663</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05226934617363101</v>
+        <v>0.03776037851033454</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4602931905.839261</v>
+        <v>4766160158.669594</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1262803638437163</v>
+        <v>0.1028276364324382</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05427329133793692</v>
+        <v>0.05687204155572766</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3626691766.827384</v>
+        <v>3239370264.475869</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1993601014638913</v>
+        <v>0.1741266691730307</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02366355026313227</v>
+        <v>0.02955247510752394</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4428345759.309097</v>
+        <v>3047418776.539019</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1165877322563131</v>
+        <v>0.13956569556523</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03304510167406522</v>
+        <v>0.03974440577390666</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3107837438.002278</v>
+        <v>3109160117.413238</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1462149765437273</v>
+        <v>0.139361002199321</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0236634947171608</v>
+        <v>0.031347248826664</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1270886208.383007</v>
+        <v>1604761204.195403</v>
       </c>
       <c r="F56" t="n">
-        <v>0.114632876067067</v>
+        <v>0.1560684082509302</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03781525553161731</v>
+        <v>0.04210553485546648</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3050658775.317992</v>
+        <v>3638429375.560661</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1569811524854426</v>
+        <v>0.1265255164211868</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02121081322260626</v>
+        <v>0.02298155698821606</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1776014156.950632</v>
+        <v>1371119645.937103</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1347984982611464</v>
+        <v>0.1563008586798392</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03538596739456359</v>
+        <v>0.03648735285347868</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3471398084.510481</v>
+        <v>4565566118.116038</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09097656846322076</v>
+        <v>0.08067748899908327</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0429951251969934</v>
+        <v>0.03509453823522598</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2741542289.947604</v>
+        <v>3711040376.396139</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1820889825092523</v>
+        <v>0.1289183372642663</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02330814161763389</v>
+        <v>0.03142070221623067</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2647487051.945996</v>
+        <v>2952308636.681387</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1424961432564417</v>
+        <v>0.153882857410232</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02829247861604526</v>
+        <v>0.03245901781525953</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2025330710.454269</v>
+        <v>2066001647.318475</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1570858885962231</v>
+        <v>0.1286431760030865</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0337097108232725</v>
+        <v>0.04584949071128541</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3615889288.633799</v>
+        <v>4093459965.73645</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08650730199807072</v>
+        <v>0.1056984965269071</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03809123536037357</v>
+        <v>0.03034975177974309</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4952657771.933962</v>
+        <v>3574231358.101252</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1289096503773988</v>
+        <v>0.1568528925315502</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02468331170463988</v>
+        <v>0.03323093642739371</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3633058078.344134</v>
+        <v>5356771567.170824</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1179413125797482</v>
+        <v>0.1657796713730071</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03184486754078808</v>
+        <v>0.02040563598297225</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4123759555.624346</v>
+        <v>3747824876.043633</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1419771558821326</v>
+        <v>0.1143781563373505</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03882461472992606</v>
+        <v>0.04442828862927</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2793714840.007854</v>
+        <v>2733449366.877254</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09091132940317534</v>
+        <v>0.07713030557102715</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05037139952546196</v>
+        <v>0.04542400945937064</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5580531564.06589</v>
+        <v>5863939063.894439</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1220438604284091</v>
+        <v>0.132309546660422</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04507289469719045</v>
+        <v>0.04766884369545269</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2041997368.438769</v>
+        <v>1795013350.468621</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1700643236068417</v>
+        <v>0.1585720235738869</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05656878510055648</v>
+        <v>0.05727328103764645</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3248402025.599305</v>
+        <v>3178840015.795884</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08387755872705463</v>
+        <v>0.08424908689376903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03030245179344871</v>
+        <v>0.04653133759466883</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5356145074.979868</v>
+        <v>3973468309.564829</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1749925944744602</v>
+        <v>0.1615445387983657</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02181435718254615</v>
+        <v>0.03014289803123781</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1700407907.801945</v>
+        <v>1509599383.889569</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08341891939704853</v>
+        <v>0.07264554362076649</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04993073218771155</v>
+        <v>0.04354760071788327</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2836496196.054282</v>
+        <v>2650245042.632113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09558789562011943</v>
+        <v>0.07585273023059561</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05000428422763541</v>
+        <v>0.04310616936157412</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2866305330.057598</v>
+        <v>2631575040.756619</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1557081110673772</v>
+        <v>0.1319094706884473</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03468434708544609</v>
+        <v>0.02447024250270539</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2424865828.753736</v>
+        <v>1612845139.226117</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1479979098443484</v>
+        <v>0.1553006282432526</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0337861749384416</v>
+        <v>0.02704597660183127</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4937202421.094922</v>
+        <v>4105526802.328004</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1243729651602926</v>
+        <v>0.1088243819146126</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03230667234345326</v>
+        <v>0.02701744269992986</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1690872347.709979</v>
+        <v>2206677341.86943</v>
       </c>
       <c r="F77" t="n">
-        <v>0.136099295231069</v>
+        <v>0.1164881876198195</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0308535948924221</v>
+        <v>0.02475333088730782</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3893002299.552428</v>
+        <v>3359466531.788187</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1115783453943975</v>
+        <v>0.1339490306233533</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03549997799374312</v>
+        <v>0.0561380922039892</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1289380798.351588</v>
+        <v>1643756181.305893</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1756032678940569</v>
+        <v>0.1208131568082345</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03972733915957254</v>
+        <v>0.04031676636195435</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5050997672.833086</v>
+        <v>5213011178.301925</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08829392550434324</v>
+        <v>0.09391054169783894</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03058808973276641</v>
+        <v>0.02719269024949527</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5086437950.668629</v>
+        <v>3176051957.539687</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09781956836972838</v>
+        <v>0.1349232675830035</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02237506127777053</v>
+        <v>0.03006008829506591</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5594247923.250794</v>
+        <v>5104420930.7822</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1469791871530498</v>
+        <v>0.1369505379845021</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02933032712381136</v>
+        <v>0.02104818114139906</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2414278366.184027</v>
+        <v>1890995244.014523</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1164437071639355</v>
+        <v>0.1050790908715713</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03756034801563895</v>
+        <v>0.03448925077043169</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1779870841.837343</v>
+        <v>2321911563.530476</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1074517580140316</v>
+        <v>0.07332465185287382</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04349928369796798</v>
+        <v>0.03480009525137327</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2871278168.398494</v>
+        <v>3117732383.241878</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1210764300666861</v>
+        <v>0.1820110022194459</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03466958981375809</v>
+        <v>0.05045002451468106</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2180538788.557143</v>
+        <v>2777018174.335402</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1509882734305562</v>
+        <v>0.1617990894663847</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02575007982196085</v>
+        <v>0.01933327302074946</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>930766185.0069618</v>
+        <v>1407797394.294336</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1767698609242963</v>
+        <v>0.1224585912327255</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03369114710963135</v>
+        <v>0.04157802198947658</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3525381390.765658</v>
+        <v>2934922295.372237</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1690402784722975</v>
+        <v>0.1683758512611411</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03545333974316424</v>
+        <v>0.02515877369421767</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2222724604.570331</v>
+        <v>2155115118.364069</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1330130653433814</v>
+        <v>0.1486030754837916</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02679768238331853</v>
+        <v>0.02566758685320438</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1467669347.524517</v>
+        <v>1714804187.915433</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09131591771143824</v>
+        <v>0.1009160951830236</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05458450020251247</v>
+        <v>0.05422792198423017</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1797390249.245792</v>
+        <v>1812732521.968422</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1934343504135212</v>
+        <v>0.1922065304550784</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05942857655610515</v>
+        <v>0.04202783584617752</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2786246387.340733</v>
+        <v>1978485330.792392</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1073346312181096</v>
+        <v>0.1050013854533699</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02876093664588117</v>
+        <v>0.0410365600480162</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3196170439.991879</v>
+        <v>3168187698.188595</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09049465566055157</v>
+        <v>0.09559567143141685</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03651931418576177</v>
+        <v>0.04146179085547844</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2295660315.378694</v>
+        <v>2167007274.203863</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1232407792198439</v>
+        <v>0.1118113252586422</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03844010934929537</v>
+        <v>0.04160929270831939</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2234226398.249629</v>
+        <v>2672241184.951878</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08798718881790819</v>
+        <v>0.103770454596959</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04538986725245008</v>
+        <v>0.04862376173485135</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1715014300.260923</v>
+        <v>1449178492.374727</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1128507549128955</v>
+        <v>0.1263085492562472</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0426693344677072</v>
+        <v>0.04401718086208716</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3725711201.61756</v>
+        <v>4157428421.987041</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1555238453823042</v>
+        <v>0.1164358664768887</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0283125117625334</v>
+        <v>0.01867296307246559</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2575007117.381485</v>
+        <v>2616418048.432563</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1079807746526238</v>
+        <v>0.1012103647391724</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03180188134075291</v>
+        <v>0.02084165337345847</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2689069172.230683</v>
+        <v>3299454239.839552</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1127613519883286</v>
+        <v>0.1279730594783278</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03000421350161482</v>
+        <v>0.03109323556660409</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2967143510.605072</v>
+        <v>3256756627.309462</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1316720816336485</v>
+        <v>0.1375419590961686</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02192530944332033</v>
+        <v>0.0260028773053143</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2547715086.765292</v>
+        <v>2910043449.227885</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1945839345505739</v>
+        <v>0.1404403660968127</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04090164395423674</v>
+        <v>0.04994167220367585</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_440.xlsx
+++ b/output/fit_clients/fit_round_440.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2005544660.935313</v>
+        <v>2106270547.22642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09370562951187503</v>
+        <v>0.1143403670222339</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02826630096699829</v>
+        <v>0.04180713191405303</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2077590304.23334</v>
+        <v>2500819929.144253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123368522193052</v>
+        <v>0.1549472202599795</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03191739962305391</v>
+        <v>0.04540338055192802</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4075480251.730772</v>
+        <v>4425213380.611758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1206418982097271</v>
+        <v>0.1186806981785366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03813925349284107</v>
+        <v>0.02350118580290563</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>222</v>
+      </c>
+      <c r="J4" t="n">
+        <v>440</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4120050923.135762</v>
+        <v>4030900694.772633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1036010529914442</v>
+        <v>0.1049342484325701</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04414696897196084</v>
+        <v>0.04636459896577901</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>183</v>
+      </c>
+      <c r="J5" t="n">
+        <v>440</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2705780432.079088</v>
+        <v>1966468792.036746</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366994493719179</v>
+        <v>0.1098988872606362</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0479470992134329</v>
+        <v>0.04467865350413221</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2582686511.518433</v>
+        <v>2243766820.616719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06804838064306575</v>
+        <v>0.09903850128820108</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03808383186564654</v>
+        <v>0.04450785627143502</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3558002738.678017</v>
+        <v>3729649749.245256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1681537310093768</v>
+        <v>0.1360149010155382</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02891082123760531</v>
+        <v>0.02603275852797484</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>119</v>
+      </c>
+      <c r="J8" t="n">
+        <v>440</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52.26384363763732</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1764136383.840928</v>
+        <v>2094618800.535357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1955054114062422</v>
+        <v>0.1714279780865541</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02689944591596515</v>
+        <v>0.0366250280697622</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3679773319.26993</v>
+        <v>4012656244.342494</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1353497743990157</v>
+        <v>0.2141008222671108</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03414620531344398</v>
+        <v>0.04398075676847275</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>345</v>
+      </c>
+      <c r="J10" t="n">
+        <v>439</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.98236435253549</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4147095001.43366</v>
+        <v>3800617080.832972</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1544791571953362</v>
+        <v>0.1369231221041933</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04217638735428583</v>
+        <v>0.03265859761343352</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>182</v>
+      </c>
+      <c r="J11" t="n">
+        <v>440</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.98537652610075</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2385086838.853385</v>
+        <v>2109010507.360878</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1584725067502881</v>
+        <v>0.1942433489058502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03525739714116626</v>
+        <v>0.04405380503320832</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3917966169.857733</v>
+        <v>4516090667.649919</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08964469348975733</v>
+        <v>0.08628865136276072</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02772171332207275</v>
+        <v>0.02170028706056256</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>228</v>
+      </c>
+      <c r="J13" t="n">
+        <v>440</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3885661960.736607</v>
+        <v>2871523241.948367</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1778959276711168</v>
+        <v>0.1291101309019495</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02777493794144675</v>
+        <v>0.04218302248413455</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>96</v>
+      </c>
+      <c r="J14" t="n">
+        <v>439</v>
+      </c>
+      <c r="K14" t="n">
+        <v>31.91059189423038</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1378890672.803265</v>
+        <v>1540875044.422286</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09264916340803231</v>
+        <v>0.08297390529587893</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03846777307887402</v>
+        <v>0.0337865882228638</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2743284939.128454</v>
+        <v>2643985629.811932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08004839947914211</v>
+        <v>0.1141142836670822</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03468187924002301</v>
+        <v>0.04532222866344709</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4171265926.74005</v>
+        <v>3560370728.962328</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1445618886988122</v>
+        <v>0.170551244579017</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03677902218431736</v>
+        <v>0.04902291652957334</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>214</v>
+      </c>
+      <c r="J17" t="n">
+        <v>438</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3205087485.949823</v>
+        <v>3165799240.798286</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1346233772349106</v>
+        <v>0.160151870404328</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02647395011683325</v>
+        <v>0.03404536742782936</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>114</v>
+      </c>
+      <c r="J18" t="n">
+        <v>439</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38.12613632213584</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1048308223.560853</v>
+        <v>1172778536.772109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1386822044440794</v>
+        <v>0.1307422341491334</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02555751923991263</v>
+        <v>0.02308814138783269</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1713778197.935584</v>
+        <v>2095854011.976652</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1460217168817074</v>
+        <v>0.1055391451487454</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02555988315156084</v>
+        <v>0.02477217317535986</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1813510304.749328</v>
+        <v>2533823283.252075</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09477806201891542</v>
+        <v>0.09532432105385069</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02871489543422669</v>
+        <v>0.03416510371007113</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1211,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3958533953.728796</v>
+        <v>3381497044.029086</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09531579209965087</v>
+        <v>0.1219927764761534</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05433577886865633</v>
+        <v>0.05445759378200202</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="n">
+        <v>37.30814595950381</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1193361366.274091</v>
+        <v>1468495567.415734</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810761009489213</v>
+        <v>0.1761965085432204</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03806738102551479</v>
+        <v>0.05163718201375887</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3204871841.296777</v>
+        <v>2630281928.544904</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1488712237086978</v>
+        <v>0.09285126793372718</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02637481819914484</v>
+        <v>0.02286222024087859</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>139</v>
+      </c>
+      <c r="J24" t="n">
+        <v>439</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22.58677473528492</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1252602035.072891</v>
+        <v>994573080.5649506</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09965633888873947</v>
+        <v>0.1087304829433642</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02305550281727039</v>
+        <v>0.02424155091133958</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>926546027.8213551</v>
+        <v>1444487101.28529</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08304966797742443</v>
+        <v>0.0916831567118857</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02354129107277348</v>
+        <v>0.03915108827622671</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4041807166.133614</v>
+        <v>2952078363.593637</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1244148547899434</v>
+        <v>0.1402151183022369</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01962891304297798</v>
+        <v>0.02545033982314911</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>191</v>
+      </c>
+      <c r="J27" t="n">
+        <v>439</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22.8205904848837</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2774303778.771669</v>
+        <v>2640033442.540966</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1252492280139207</v>
+        <v>0.1160751184934773</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03229957029155119</v>
+        <v>0.04009019917366664</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4614651295.974455</v>
+        <v>5265494678.149461</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1076693900257284</v>
+        <v>0.1454535854118726</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04483789328750685</v>
+        <v>0.03354909582165823</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>361</v>
+      </c>
+      <c r="J29" t="n">
+        <v>439</v>
+      </c>
+      <c r="K29" t="n">
+        <v>34.55918448341411</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2147306782.21315</v>
+        <v>1545866484.335082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1298236055816367</v>
+        <v>0.1217861698077005</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03174310503600451</v>
+        <v>0.03977557425159985</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1200559081.622562</v>
+        <v>994709112.1568834</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08582566352746801</v>
+        <v>0.1020572460146702</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04227856978473653</v>
+        <v>0.04151429160622195</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1671160025.099136</v>
+        <v>1252261305.114904</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1184820852189213</v>
+        <v>0.1136234202798382</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03650203082965195</v>
+        <v>0.037027164505978</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2233375133.209482</v>
+        <v>2953077213.782831</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1663896283454385</v>
+        <v>0.2005535662261844</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05721602046764182</v>
+        <v>0.05376196481775962</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1384662366.031718</v>
+        <v>1419646796.295523</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1084752086922361</v>
+        <v>0.09618794862635849</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01762213795499982</v>
+        <v>0.02620516967131321</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1002718237.048274</v>
+        <v>985154401.0166556</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07347191951443874</v>
+        <v>0.10881152274707</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02977114539024451</v>
+        <v>0.0300548544749694</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2381161242.958652</v>
+        <v>2085282930.412336</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1716023626738229</v>
+        <v>0.1176825021782786</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02728070650504643</v>
+        <v>0.018249871830401</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2793762528.6484</v>
+        <v>2149869631.836937</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09695815806769473</v>
+        <v>0.08999383439112274</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03560033191514232</v>
+        <v>0.03569065697598746</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1866135434.348522</v>
+        <v>2141770064.930934</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09586017664544916</v>
+        <v>0.1069643525090757</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03931704155866072</v>
+        <v>0.02552463564327851</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1586598675.897383</v>
+        <v>2060358933.801614</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1347880941263775</v>
+        <v>0.1496951735950371</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03287027054840451</v>
+        <v>0.02373237329335205</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1637516077.943914</v>
+        <v>1386185675.450473</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1343167809613555</v>
+        <v>0.1287103055942485</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05676434253722797</v>
+        <v>0.0369032552587819</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1884,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2126477998.737563</v>
+        <v>1863345082.403251</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1408674039036812</v>
+        <v>0.1365941692253327</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03567266822427077</v>
+        <v>0.04071888201553069</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1919,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3122118364.288887</v>
+        <v>3660160793.573583</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08597182324844965</v>
+        <v>0.1135254891857911</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02910796843330539</v>
+        <v>0.03420601468697935</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>190</v>
+      </c>
+      <c r="J42" t="n">
+        <v>440</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1968778268.497651</v>
+        <v>1934095737.715168</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1725982272003231</v>
+        <v>0.1344983349497892</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02477133574118253</v>
+        <v>0.02250976708184745</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1736770864.722321</v>
+        <v>1754273008.390074</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0849107878132849</v>
+        <v>0.1019548342876209</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02986996236547318</v>
+        <v>0.03565439867242707</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1579366711.170404</v>
+        <v>1691010670.992272</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1952490045928988</v>
+        <v>0.1544231307850631</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05611579387656396</v>
+        <v>0.03806252052429465</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4982190394.851691</v>
+        <v>4307053661.60797</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1519608812925137</v>
+        <v>0.1655863945639088</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04088238122312001</v>
+        <v>0.05876062665634298</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>262</v>
+      </c>
+      <c r="J46" t="n">
+        <v>439</v>
+      </c>
+      <c r="K46" t="n">
+        <v>37.91124310123743</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3756681397.224825</v>
+        <v>4235207313.631627</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1630448986283671</v>
+        <v>0.1680243724267929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05155212201978264</v>
+        <v>0.04611005570887698</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>197</v>
+      </c>
+      <c r="J47" t="n">
+        <v>440</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2131,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3974413720.559804</v>
+        <v>2843449693.33784</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07532613907451131</v>
+        <v>0.09580674983341191</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02832815301209683</v>
+        <v>0.0376953393747638</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>435</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1341132720.659347</v>
+        <v>1388520259.544072</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1341985275746121</v>
+        <v>0.1877000759012904</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03879137701121995</v>
+        <v>0.03672765154907873</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3095224995.79241</v>
+        <v>3822730875.564632</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1546100723397199</v>
+        <v>0.1343106071082475</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04100464132891765</v>
+        <v>0.05270663750948493</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>154</v>
+      </c>
+      <c r="J50" t="n">
+        <v>440</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>988004709.7571604</v>
+        <v>1213368091.575346</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1614798234100663</v>
+        <v>0.1306520571580968</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03776037851033454</v>
+        <v>0.03851585959769065</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2271,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4766160158.669594</v>
+        <v>4471897232.800203</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1028276364324382</v>
+        <v>0.09866448923979584</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05687204155572766</v>
+        <v>0.060139436227464</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>251</v>
+      </c>
+      <c r="J52" t="n">
+        <v>440</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2306,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3239370264.475869</v>
+        <v>2494227621.865139</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1741266691730307</v>
+        <v>0.1450797115283804</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02955247510752394</v>
+        <v>0.03410314237497117</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>439</v>
+      </c>
+      <c r="K53" t="n">
+        <v>25.98542430373082</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3047418776.539019</v>
+        <v>3004489939.024206</v>
       </c>
       <c r="F54" t="n">
-        <v>0.13956569556523</v>
+        <v>0.1329097545125227</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03974440577390666</v>
+        <v>0.03795685630198747</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>233</v>
+      </c>
+      <c r="J54" t="n">
+        <v>439</v>
+      </c>
+      <c r="K54" t="n">
+        <v>22.90893475098362</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3109160117.413238</v>
+        <v>4549949495.656908</v>
       </c>
       <c r="F55" t="n">
-        <v>0.139361002199321</v>
+        <v>0.1490533508402231</v>
       </c>
       <c r="G55" t="n">
-        <v>0.031347248826664</v>
+        <v>0.02673186998660253</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>218</v>
+      </c>
+      <c r="J55" t="n">
+        <v>440</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1604761204.195403</v>
+        <v>1610372493.894526</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1560684082509302</v>
+        <v>0.1147242923865714</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04210553485546648</v>
+        <v>0.04350982049335384</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3638429375.560661</v>
+        <v>3868092073.996774</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1265255164211868</v>
+        <v>0.113208123772117</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02298155698821606</v>
+        <v>0.02399466899804436</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>191</v>
+      </c>
+      <c r="J57" t="n">
+        <v>439</v>
+      </c>
+      <c r="K57" t="n">
+        <v>37.41743932244853</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1371119645.937103</v>
+        <v>1442222917.572518</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1563008586798392</v>
+        <v>0.1723352495645453</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03648735285347868</v>
+        <v>0.03923314221763124</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4565566118.116038</v>
+        <v>3326323164.050946</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08067748899908327</v>
+        <v>0.117372101560671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03509453823522598</v>
+        <v>0.04969322666665833</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>215</v>
+      </c>
+      <c r="J59" t="n">
+        <v>438</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3711040376.396139</v>
+        <v>3246782621.441254</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1289183372642663</v>
+        <v>0.1430042387184019</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03142070221623067</v>
+        <v>0.03242277496445721</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2952308636.681387</v>
+        <v>3316737985.943734</v>
       </c>
       <c r="F61" t="n">
-        <v>0.153882857410232</v>
+        <v>0.1476471231126208</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03245901781525953</v>
+        <v>0.02459471063119314</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2066001647.318475</v>
+        <v>1635948051.555168</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1286431760030865</v>
+        <v>0.1655661710897262</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04584949071128541</v>
+        <v>0.03489358049789986</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4093459965.73645</v>
+        <v>4783236764.42985</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1056984965269071</v>
+        <v>0.09760897488714496</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03034975177974309</v>
+        <v>0.03885443859159692</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>219</v>
+      </c>
+      <c r="J63" t="n">
+        <v>440</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3574231358.101252</v>
+        <v>3801440093.477598</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1568528925315502</v>
+        <v>0.1852990478619342</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03323093642739371</v>
+        <v>0.02760632622321725</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>220</v>
+      </c>
+      <c r="J64" t="n">
+        <v>440</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5356771567.170824</v>
+        <v>4083799314.108883</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1657796713730071</v>
+        <v>0.143774998954208</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02040563598297225</v>
+        <v>0.02533523817014106</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>317</v>
+      </c>
+      <c r="J65" t="n">
+        <v>440</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3747824876.043633</v>
+        <v>5100093322.73749</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1143781563373505</v>
+        <v>0.1598419537925537</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04442828862927</v>
+        <v>0.03236007993158613</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>217</v>
+      </c>
+      <c r="J66" t="n">
+        <v>439</v>
+      </c>
+      <c r="K66" t="n">
+        <v>36.40639027814854</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2733449366.877254</v>
+        <v>2726583994.215059</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07713030557102715</v>
+        <v>0.0792197794214252</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04542400945937064</v>
+        <v>0.04730026349525195</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5863939063.894439</v>
+        <v>4907058446.869525</v>
       </c>
       <c r="F68" t="n">
-        <v>0.132309546660422</v>
+        <v>0.1394033517323749</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04766884369545269</v>
+        <v>0.04812345605219698</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>240</v>
+      </c>
+      <c r="J68" t="n">
+        <v>439</v>
+      </c>
+      <c r="K68" t="n">
+        <v>35.9390439842001</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1795013350.468621</v>
+        <v>2002958976.439965</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585720235738869</v>
+        <v>0.1717321605322547</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05727328103764645</v>
+        <v>0.03901968217583494</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3178840015.795884</v>
+        <v>3129470605.022567</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08424908689376903</v>
+        <v>0.08111083376317778</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04653133759466883</v>
+        <v>0.04072689190146536</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3973468309.564829</v>
+        <v>5656817816.353428</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1615445387983657</v>
+        <v>0.1495659739244551</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03014289803123781</v>
+        <v>0.02687658638944276</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>303</v>
+      </c>
+      <c r="J71" t="n">
+        <v>440</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1509599383.889569</v>
+        <v>1476691409.522382</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07264554362076649</v>
+        <v>0.09213669225791644</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04354760071788327</v>
+        <v>0.0417392575585499</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2650245042.632113</v>
+        <v>3424647397.275931</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07585273023059561</v>
+        <v>0.08254114155167101</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04310616936157412</v>
+        <v>0.03300787937484935</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>437</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2631575040.756619</v>
+        <v>3312635058.750582</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1319094706884473</v>
+        <v>0.1783930306417366</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02447024250270539</v>
+        <v>0.03404484003411126</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1612845139.226117</v>
+        <v>1837042572.499064</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1553006282432526</v>
+        <v>0.1447181197820188</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02704597660183127</v>
+        <v>0.03348728641302662</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4105526802.328004</v>
+        <v>4685145739.991136</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1088243819146126</v>
+        <v>0.08083071084647993</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02701744269992986</v>
+        <v>0.03137208206540354</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>210</v>
+      </c>
+      <c r="J76" t="n">
+        <v>439</v>
+      </c>
+      <c r="K76" t="n">
+        <v>36.02802890930214</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2206677341.86943</v>
+        <v>1422575593.63052</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1164881876198195</v>
+        <v>0.144675996229177</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02475333088730782</v>
+        <v>0.02965993152319989</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3359466531.788187</v>
+        <v>4359097629.454218</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1339490306233533</v>
+        <v>0.09506309181928754</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0561380922039892</v>
+        <v>0.0548119919862432</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>220</v>
+      </c>
+      <c r="J78" t="n">
+        <v>440</v>
+      </c>
+      <c r="K78" t="n">
+        <v>38.61450970864542</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1643756181.305893</v>
+        <v>1397933219.834384</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1208131568082345</v>
+        <v>0.1281156460123282</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04031676636195435</v>
+        <v>0.02572904148151394</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5213011178.301925</v>
+        <v>4176189145.010849</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09391054169783894</v>
+        <v>0.07828725504483314</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02719269024949527</v>
+        <v>0.03442320210321144</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>214</v>
+      </c>
+      <c r="J80" t="n">
+        <v>440</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3176051957.539687</v>
+        <v>4892783244.315914</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1349232675830035</v>
+        <v>0.0866279865665588</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03006008829506591</v>
+        <v>0.023944791346262</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>204</v>
+      </c>
+      <c r="J81" t="n">
+        <v>439</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.05019893847507</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5104420930.7822</v>
+        <v>4481727997.207923</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1369505379845021</v>
+        <v>0.1388981841241988</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02104818114139906</v>
+        <v>0.02247740946161478</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>295</v>
+      </c>
+      <c r="J82" t="n">
+        <v>440</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1890995244.014523</v>
+        <v>1817897408.210712</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1050790908715713</v>
+        <v>0.1402029248281045</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03448925077043169</v>
+        <v>0.02915952694218746</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2321911563.530476</v>
+        <v>2117612836.680955</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07332465185287382</v>
+        <v>0.1154715595237291</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03480009525137327</v>
+        <v>0.04386075444905475</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3117732383.241878</v>
+        <v>2360409903.178644</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1820110022194459</v>
+        <v>0.1635833138375485</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05045002451468106</v>
+        <v>0.04457336763437492</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2777018174.335402</v>
+        <v>1937639006.232905</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1617990894663847</v>
+        <v>0.1367627167355699</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01933327302074946</v>
+        <v>0.02587311804495568</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1407797394.294336</v>
+        <v>1189396172.429381</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1224585912327255</v>
+        <v>0.1350292893804536</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04157802198947658</v>
+        <v>0.04063366270149735</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2934922295.372237</v>
+        <v>2370193345.726279</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1683758512611411</v>
+        <v>0.1166088783923239</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02515877369421767</v>
+        <v>0.0320361782502374</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2155115118.364069</v>
+        <v>2768932074.350674</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1486030754837916</v>
+        <v>0.1400623716146742</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02566758685320438</v>
+        <v>0.03061488425017478</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1714804187.915433</v>
+        <v>2132164144.514639</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1009160951830236</v>
+        <v>0.09905213700808269</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05422792198423017</v>
+        <v>0.03787792630607519</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1812732521.968422</v>
+        <v>1353402193.044758</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1922065304550784</v>
+        <v>0.1300292776578021</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04202783584617752</v>
+        <v>0.04012260435311228</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1978485330.792392</v>
+        <v>2463441435.451135</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1050013854533699</v>
+        <v>0.08442726183452887</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0410365600480162</v>
+        <v>0.02895586385662722</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3168187698.188595</v>
+        <v>3093740384.378971</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09559567143141685</v>
+        <v>0.08701675429109848</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04146179085547844</v>
+        <v>0.05438760340135301</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>211</v>
+      </c>
+      <c r="J93" t="n">
+        <v>438</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2167007274.203863</v>
+        <v>2017493135.207219</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1118113252586422</v>
+        <v>0.1060371448594865</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04160929270831939</v>
+        <v>0.03214826445049027</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2672241184.951878</v>
+        <v>2245041846.277043</v>
       </c>
       <c r="F95" t="n">
-        <v>0.103770454596959</v>
+        <v>0.1323340526775512</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04862376173485135</v>
+        <v>0.04098144173060116</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1449178492.374727</v>
+        <v>1998323146.252038</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1263085492562472</v>
+        <v>0.1304782922373718</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04401718086208716</v>
+        <v>0.03260698566898371</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4157428421.987041</v>
+        <v>5179954677.349877</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1164358664768887</v>
+        <v>0.1671379438911212</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01867296307246559</v>
+        <v>0.027935338922928</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>229</v>
+      </c>
+      <c r="J97" t="n">
+        <v>440</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2616418048.432563</v>
+        <v>3608235827.886944</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1012103647391724</v>
+        <v>0.104161094834458</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02084165337345847</v>
+        <v>0.01994129751749443</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3932,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3299454239.839552</v>
+        <v>3181443973.804712</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1279730594783278</v>
+        <v>0.09783092913844159</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03109323556660409</v>
+        <v>0.028009098394281</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3256756627.309462</v>
+        <v>4276806512.493816</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1375419590961686</v>
+        <v>0.1502503153619773</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0260028773053143</v>
+        <v>0.02579840824361283</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>204</v>
+      </c>
+      <c r="J100" t="n">
+        <v>440</v>
+      </c>
+      <c r="K100" t="n">
+        <v>38.888810184561</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2910043449.227885</v>
+        <v>3036066534.614249</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1404403660968127</v>
+        <v>0.1712566252541292</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04994167220367585</v>
+        <v>0.05813019996523516</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>40</v>
+      </c>
+      <c r="J101" t="n">
+        <v>440</v>
+      </c>
+      <c r="K101" t="n">
+        <v>51.05189662073196</v>
       </c>
     </row>
   </sheetData>
